--- a/biology/Botanique/Avicennia/Avicennia.xlsx
+++ b/biology/Botanique/Avicennia/Avicennia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avicennia est un genre de plante de la famille des Acanthaceae.
 Le ''palétuvier noir'' (représenté par le genre Avicennia) se trouve plus en arrière de la mangrove et constitue un paysage très particulier avec ses pneumatophores qui surgissent verticalement du sol sur 10 à 20 cm de hauteur en ranges serrés.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mangrove essentiellement constituée de palétuviers du genre Avicennia était présente autour de l'océan Arctique pendant l'optimum climatique de l'Éocène, il y a 56 à 40 millions d'années[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mangrove essentiellement constituée de palétuviers du genre Avicennia était présente autour de l'océan Arctique pendant l'optimum climatique de l'Éocène, il y a 56 à 40 millions d'années,.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les mangroves de l'Asie du Sud-Est, près de la mer, au niveau des basses eaux, les premiers colonisateurs sont des palétuviers noirs Avicennias dont l'Avicennia marina (et aussi des arbuste du genre Sonneratia)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les mangroves de l'Asie du Sud-Est, près de la mer, au niveau des basses eaux, les premiers colonisateurs sont des palétuviers noirs Avicennias dont l'Avicennia marina (et aussi des arbuste du genre Sonneratia).
 Dans les mangroves des Antilles et de Guyane, les palétuviers noirs Avicennias ne poussent pas près de la mer. Ce sont les palétuviers rouges Rhizophora mangle qui poussent  près de la mer et ensuite se développent juste en arrière les Avicennia germinans. 
 Ces arbres ont de longues racines qui fixent la vase et permettent à de nouveaux sédiments de se déposer derrière. 
 Les Avicennias supportent un degré élevé de salinité. Ils supportent aussi d'être presque continuellement submergés dans l'eau salée de la mer.
-Et comme il n'y a pas d'air dans la vase salée, les racines des Avicennias donnent naissance à des pneumatophores, excroissances verticales exposées à l'air à marée basse pour leur permettre de respirer[4].
+Et comme il n'y a pas d'air dans la vase salée, les racines des Avicennias donnent naissance à des pneumatophores, excroissances verticales exposées à l'air à marée basse pour leur permettre de respirer.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[5]   9 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   9 octobre 2012
 Avicennia balanophora Stapf &amp; Moldenke , (1940)
 Avicennia bicolor Standl. , (1923)
 Avicennia germinans (L.) L. , (1764)
@@ -621,9 +639,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[5]   9 octobre 2012
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   9 octobre 2012
 Avicennia africana P.Beauv. = Avicennia germinans (L.) L. , (1764)
 Avicennia alba Blume = Avicennia marina subsp. marina
 Avicennia alba var. latifolia Moldenke = Avicennia marina subsp. marina
